--- a/Recycling/Met_rec/metrec_Avg_full.xlsx
+++ b/Recycling/Met_rec/metrec_Avg_full.xlsx
@@ -111,6 +111,23 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="4">
+  <si>
+    <t>EU27+UK</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>RoW</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -466,7 +483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -478,10 +495,34 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>0</v>
       </c>
     </row>
@@ -492,7 +533,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -504,11 +545,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.0544285123555366</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.05364490943057312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.003606317926234183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.01469053834596606</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.06505447105085736</v>
       </c>
     </row>
   </sheetData>
@@ -518,7 +583,7 @@
 
 <file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -530,11 +595,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>12980.9408988119</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>13163.77520130484</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>17473.80345161756</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>10223.15950988858</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>100971.6861308026</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +633,7 @@
 
 <file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -556,11 +645,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>13342.35870962069</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>13560.68589440292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>18063.65484765016</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>10593.51706834724</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>103775.9337057571</v>
       </c>
     </row>
   </sheetData>
@@ -570,7 +683,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -582,11 +695,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.116836048702435</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.1153724216115791</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.007229423470826173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.02891782482980633</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.1250194800305724</v>
       </c>
     </row>
   </sheetData>
@@ -596,7 +733,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -608,11 +745,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.2358554533139079</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.2333110274932037</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.01351499134153955</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.05361604882098146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.2244569537220751</v>
       </c>
     </row>
   </sheetData>
@@ -622,7 +783,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -634,11 +795,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.4550598404666876</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.4509003728680601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.02397739795504931</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.09470830803617598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.3818563403526603</v>
       </c>
     </row>
   </sheetData>
@@ -648,7 +833,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -660,11 +845,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.8495567858109292</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.8431127668221419</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.04124221708964691</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.1611825305506745</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.6229262212466722</v>
       </c>
     </row>
   </sheetData>
@@ -674,7 +883,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -686,11 +895,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1.54522249176035</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1.53561201434351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.07048290555559578</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.2669367403233443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.9842817182017212</v>
       </c>
     </row>
   </sheetData>
@@ -700,7 +933,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -712,11 +945,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>2.738860740159482</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2.72470739068272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.1222893004660622</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.433168033089916</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1.518416215468137</v>
       </c>
     </row>
   </sheetData>
@@ -726,7 +983,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -738,11 +995,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>4.714828819663865</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4.693647739719901</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.2179537215673597</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.6911588506237627</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2.300793234264889</v>
       </c>
     </row>
   </sheetData>
@@ -752,7 +1033,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -764,11 +1045,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>7.857384846472359</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>7.824612637714464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.3967909806268083</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.085390951237118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3.439731616831778</v>
       </c>
     </row>
   </sheetData>
@@ -778,7 +1083,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -790,11 +1095,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>12.65898987326606</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>12.60668642126656</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.7261222713196678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.677193437903359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>5.08815442226718</v>
       </c>
     </row>
   </sheetData>
@@ -804,7 +1133,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -816,10 +1145,34 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>0</v>
       </c>
     </row>
@@ -830,7 +1183,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -842,11 +1195,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>19.72329350208523</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>19.6385144587193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.316775164671491</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2.549152412229293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>7.455775282875307</v>
       </c>
     </row>
   </sheetData>
@@ -856,7 +1233,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -868,11 +1245,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>29.76065032826361</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>29.62346112916784</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2.344210352975343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3.809205469777655</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>10.82109299870992</v>
       </c>
     </row>
   </sheetData>
@@ -882,7 +1283,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -894,11 +1295,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>43.57400825922543</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>43.354983813552</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4.070495485010879</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5.593536130957649</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>15.54281342222356</v>
       </c>
     </row>
   </sheetData>
@@ -908,7 +1333,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -920,11 +1345,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>62.03253568689632</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>61.68942828401194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>6.863660540936889</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>8.068177118830246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>22.07036126491744</v>
       </c>
     </row>
   </sheetData>
@@ -934,7 +1383,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -946,11 +1395,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>86.02863674362736</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>85.50222029097648</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>11.21521891494506</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>11.42934726417703</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>30.95196866163172</v>
       </c>
     </row>
   </sheetData>
@@ -960,7 +1433,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -972,11 +1445,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>116.4145406694005</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>115.6238934890098</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>17.75663858292964</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>15.90232259325347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>42.83899118434324</v>
       </c>
     </row>
   </sheetData>
@@ -986,7 +1483,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -998,11 +1495,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>153.9212056963538</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>152.7588647490821</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>27.28389117632624</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>21.74333155212363</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>58.50124930395978</v>
       </c>
     </row>
   </sheetData>
@@ -1012,7 +1533,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1024,11 +1545,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>199.0734167551076</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>197.401325095637</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>40.81159954766333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>29.25891471066913</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>78.89629183734242</v>
       </c>
     </row>
   </sheetData>
@@ -1038,7 +1583,7 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1050,11 +1595,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>252.1032522825172</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>249.7505352880496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>59.65056122340098</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>38.84135713563158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>105.2876996628825</v>
       </c>
     </row>
   </sheetData>
@@ -1064,7 +1633,7 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1076,11 +1645,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>312.8762394027731</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>309.6396978137911</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>85.51691027202652</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>51.02170200164013</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>139.4252517573857</v>
       </c>
     </row>
   </sheetData>
@@ -1090,7 +1683,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1102,11 +1695,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>5.044623490415287E-07</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4.938961119281515E-07</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2.266709437893566E-08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.765416959986049E-07</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>7.486782779805745E-07</v>
       </c>
     </row>
   </sheetData>
@@ -1116,7 +1733,7 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1128,11 +1745,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>380.8835775155742</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>376.5315803675929</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>120.7412692072681</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>66.56751876035348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>183.8938776424781</v>
       </c>
     </row>
   </sheetData>
@@ -1142,7 +1783,7 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1154,11 +1795,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>455.3240790570662</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>449.6046860743768</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>168.5649928190533</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>86.62214674732945</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>242.6150369211473</v>
       </c>
     </row>
   </sheetData>
@@ -1168,7 +1833,7 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1180,11 +1845,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>535.290056377603</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>527.9443907603228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>233.4730321566904</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>112.8681573248935</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>321.4274900801013</v>
       </c>
     </row>
   </sheetData>
@@ -1194,7 +1883,7 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1206,11 +1895,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>620.0896143682735</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>610.8713440402862</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>321.5411999770213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>147.7088582717736</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>428.7186767164303</v>
       </c>
     </row>
   </sheetData>
@@ -1220,7 +1933,7 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1232,11 +1945,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>709.7364757572846</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>698.4376945073122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>440.7850918650029</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>194.4633386729632</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>576.1039882910692</v>
       </c>
     </row>
   </sheetData>
@@ -1246,7 +1983,7 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1258,11 +1995,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>805.6173860534312</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>792.1001634892837</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>601.5004158370211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>257.566817320988</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>779.1753314640857</v>
       </c>
     </row>
   </sheetData>
@@ -1272,7 +2033,7 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1284,11 +2045,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>911.3084254853173</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>895.5398613803399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>816.586752445105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>342.7686549218324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1058.298515768667</v>
       </c>
     </row>
   </sheetData>
@@ -1298,7 +2083,7 @@
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1310,11 +2095,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1033.449871510291</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1015.536859638703</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1101.841820394078</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>457.3139165031619</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1439.400145143989</v>
       </c>
     </row>
   </sheetData>
@@ -1324,7 +2133,7 @@
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1336,11 +2145,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1182.513809027769</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1162.732285350644</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1476.196485915333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>610.0787672189523</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1954.652626960334</v>
       </c>
     </row>
   </sheetData>
@@ -1350,7 +2183,7 @@
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1362,11 +2195,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1373.220869057003</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1352.033598054186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1961.802844760351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>811.5988066732785</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2642.868681087437</v>
       </c>
     </row>
   </sheetData>
@@ -1376,7 +2233,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1388,11 +2245,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>2.119939377209255E-05</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2.07538012664925E-05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.022642723303918E-06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>7.487476844701429E-06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3.182207717533172E-05</v>
       </c>
     </row>
   </sheetData>
@@ -1402,7 +2283,7 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1414,11 +2295,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1624.314310102176</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1602.37169095407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2583.787895566611</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1073.884930355244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3549.266683530367</v>
       </c>
     </row>
   </sheetData>
@@ -1428,7 +2333,7 @@
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1440,11 +2345,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1957.502841638376</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1935.622909177156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3369.532035888806</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1409.947099448917</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4724.330612884913</v>
       </c>
     </row>
   </sheetData>
@@ -1454,7 +2383,7 @@
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1466,11 +2395,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>2395.541732722443</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2374.668079152905</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4347.330851797823</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1832.962084833124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>6221.508946107289</v>
       </c>
     </row>
   </sheetData>
@@ -1480,7 +2433,7 @@
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1492,11 +2445,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>2959.592376549852</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2940.731195386175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>5544.247405262773</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2355.024911901854</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>8093.473240265997</v>
       </c>
     </row>
   </sheetData>
@@ -1506,7 +2483,7 @@
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1518,11 +2495,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>3666.164089963241</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3650.301033577768</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>6982.975103821648</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2985.46026510628</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>10386.73639852054</v>
       </c>
     </row>
   </sheetData>
@@ -1532,7 +2533,7 @@
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1544,11 +2545,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>4524.022343284805</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4512.014267897915</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>8677.624297670285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3728.736998628359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>13134.61997794035</v>
       </c>
     </row>
   </sheetData>
@@ -1558,7 +2583,7 @@
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1570,11 +2595,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>5531.432424289933</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5523.870373164469</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>10628.59690053652</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4582.142439015196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>16348.95434130337</v>
       </c>
     </row>
   </sheetData>
@@ -1584,7 +2633,7 @@
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1596,11 +2645,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6674.018732379079</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>6671.065185387019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>12817.05168995443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5533.505841946537</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>20011.36861150137</v>
       </c>
     </row>
   </sheetData>
@@ -1610,7 +2683,7 @@
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1622,11 +2695,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>7923.44553617229</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>7924.657096040081</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>15199.83665173194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6559.389336409198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>24065.49822580618</v>
       </c>
     </row>
   </sheetData>
@@ -1636,7 +2733,7 @@
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1648,11 +2745,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>9237.144302006596</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>9241.302861575623</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>17706.10754613934</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>7624.260037533257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>28411.83851856616</v>
       </c>
     </row>
   </sheetData>
@@ -1662,7 +2783,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1674,11 +2795,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.0001865082937416048</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.0001825450522702422</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.126705364119609E-05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6.791584709400183E-05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.0002911972708066629</v>
       </c>
     </row>
   </sheetData>
@@ -1688,7 +2833,7 @@
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1700,11 +2845,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>10559.40511680163</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10564.39384447242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>20237.01210212256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>8681.164671374858</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>32907.12836749333</v>
       </c>
     </row>
   </sheetData>
@@ -1714,7 +2883,7 @@
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1726,11 +2895,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>11824.19884813396</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>11826.95401519822</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>22669.63461315895</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>9674.283684910853</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>37369.83141377471</v>
       </c>
     </row>
   </sheetData>
@@ -1740,7 +2933,7 @@
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1752,11 +2945,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>12959.9622675699</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>12956.50962802754</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>24865.77382120976</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>10543.43495609605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>41592.44177414815</v>
       </c>
     </row>
   </sheetData>
@@ -1766,7 +2983,7 @@
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1778,11 +2995,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>13896.20039014733</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>13881.75690589469</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>26685.1130692166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>11230.16439734173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>45360.02190098271</v>
       </c>
     </row>
   </sheetData>
@@ -1792,7 +3033,7 @@
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1804,11 +3045,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>14571.21862302952</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>14540.31863916573</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>28001.16197072374</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>11684.60292048006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>48472.81953035399</v>
       </c>
     </row>
   </sheetData>
@@ -1818,7 +3083,7 @@
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1830,11 +3095,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>14939.78862215976</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>14886.39317559217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>28717.36612383373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>11871.93879799371</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>50769.47456166861</v>
       </c>
     </row>
   </sheetData>
@@ -1844,7 +3133,7 @@
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1856,11 +3145,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>14979.30437493449</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>14896.87371444758</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>28780.35386039543</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>11777.27818337917</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>52146.69075715807</v>
       </c>
     </row>
   </sheetData>
@@ -1870,7 +3183,7 @@
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1882,11 +3195,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>14693.15747050065</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>14574.70760351306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>28187.68851194161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>11407.94030049842</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>52571.79093285153</v>
       </c>
     </row>
   </sheetData>
@@ -1896,7 +3233,7 @@
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1908,11 +3245,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>14110.66127055651</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>13948.87048824523</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>26988.71110191116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>10792.81397314398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>52086.29029996227</v>
       </c>
     </row>
   </sheetData>
@@ -1922,7 +3283,7 @@
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1934,11 +3295,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>13283.70375974765</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>13071.16119334092</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>25278.74754149997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>9979.104335718084</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>50800.91695300961</v>
       </c>
     </row>
   </sheetData>
@@ -1948,7 +3333,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1960,11 +3345,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.0008859976366545511</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.0008672772042145807</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>6.30929413301101E-05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.000324951949359686</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.001414718970301667</v>
       </c>
     </row>
   </sheetData>
@@ -1974,7 +3383,7 @@
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1986,11 +3395,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>12281.0730231014</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>12010.76327801015</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>23188.51371285236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>9027.369163627554</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>48884.43255116486</v>
       </c>
     </row>
   </sheetData>
@@ -2000,7 +3433,7 @@
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2012,11 +3445,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>11181.7533620646</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10847.84311489951</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>20871.3170084846</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>8005.948876952827</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>46549.23488257537</v>
       </c>
     </row>
   </sheetData>
@@ -2026,7 +3483,7 @@
 
 <file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2038,11 +3495,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>10068.28430564302</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>9667.221358855761</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>18490.27613981275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6985.653974704166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>44035.82401214878</v>
       </c>
     </row>
   </sheetData>
@@ -2052,7 +3533,7 @@
 
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2064,11 +3545,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>9020.669279039079</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>8552.534010649766</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>16206.55343135577</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6035.042075286864</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>41596.50514227465</v>
       </c>
     </row>
   </sheetData>
@@ -2078,7 +3583,7 @@
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2090,11 +3595,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>8110.756432665418</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>7580.727099152465</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>14168.40364403299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5216.138329306847</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>39477.56900523964</v>
       </c>
     </row>
   </sheetData>
@@ -2104,7 +3633,7 @@
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2116,11 +3645,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>7396.929461276896</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>6816.639598792864</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>12500.61042221492</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4580.363735830595</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>37899.74803360411</v>
       </c>
     </row>
   </sheetData>
@@ -2130,7 +3683,7 @@
 
 <file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2142,11 +3695,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6919.420760852017</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>6307.906420275382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>11294.80140621794</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4164.804390343573</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>37038.81573359334</v>
       </c>
     </row>
   </sheetData>
@@ -2156,7 +3733,7 @@
 
 <file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2168,11 +3745,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6697.185679595005</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>6081.063832971062</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>10602.396722298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3989.470561900844</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>37010.18950171107</v>
       </c>
     </row>
   </sheetData>
@@ -2182,7 +3783,7 @@
 
 <file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2194,11 +3795,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6727.444941539232</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>6139.969647348567</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>10432.33313649472</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4056.381809417253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>37861.5027188126</v>
       </c>
     </row>
   </sheetData>
@@ -2208,7 +3833,7 @@
 
 <file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2220,11 +3845,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6988.390511393484</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>6467.142913827603</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>10754.58982080832</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4350.906682654889</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>39574.80385183322</v>
       </c>
     </row>
   </sheetData>
@@ -2234,7 +3883,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2246,11 +3895,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.003096694700245802</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.003034187644708377</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.0002335820979552495</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.001092426934880866</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.004838082825403432</v>
       </c>
     </row>
   </sheetData>
@@ -2260,7 +3933,7 @@
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2272,11 +3945,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>7444.418770587234</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>7027.625309348859</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>11508.45280288528</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4844.967610268939</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>42076.59498820991</v>
       </c>
     </row>
   </sheetData>
@@ -2286,7 +3983,7 @@
 
 <file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2298,11 +3995,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>8052.295340691037</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>7774.115342368166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>12612.73660958736</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5501.029735064874</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>45251.50002208522</v>
       </c>
     </row>
   </sheetData>
@@ -2312,7 +4033,7 @@
 
 <file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2324,11 +4045,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>8766.488958587412</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>8651.986229430517</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>13974.97352816868</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6275.710571404223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>48955.38205087341</v>
       </c>
     </row>
   </sheetData>
@@ -2338,7 +4083,7 @@
 
 <file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2350,11 +4095,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>9542.627431910043</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>9603.407479171236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>15497.95479211458</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>7122.426777969295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>53025.89830701517</v>
       </c>
     </row>
   </sheetData>
@@ -2364,7 +4133,7 @@
 
 <file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2376,11 +4145,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>10339.11671378836</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10570.63419120366</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>17083.91426095262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>7993.294510154591</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>57291.04562940299</v>
       </c>
     </row>
   </sheetData>
@@ -2390,7 +4183,7 @@
 
 <file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2402,11 +4195,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>11117.715820861</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>11498.96562815814</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>18637.76410337327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>8840.937889882593</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>61577.41714910559</v>
       </c>
     </row>
   </sheetData>
@@ -2416,7 +4233,7 @@
 
 <file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2428,11 +4245,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>11843.91796792849</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>12339.67517493192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>20070.59213651155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>9620.690488905684</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>65719.18765772729</v>
       </c>
     </row>
   </sheetData>
@@ -2442,7 +4283,7 @@
 
 <file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2454,11 +4295,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>12487.55257076484</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>13052.70541447862</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>21303.66657476165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>10293.1528952595</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>69567.33019531818</v>
       </c>
     </row>
   </sheetData>
@@ -2468,7 +4333,7 @@
 
 <file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2480,11 +4345,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>13023.57202490701</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>13608.6317102563</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>22272.43355504416</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>10826.6683339888</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>72997.70624697697</v>
       </c>
     </row>
   </sheetData>
@@ -2494,7 +4383,7 @@
 
 <file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2506,11 +4395,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>13432.82694916243</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>13989.55781005472</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>22929.90119893678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>11199.25605213451</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>75917.0223561598</v>
       </c>
     </row>
   </sheetData>
@@ -2520,7 +4433,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2532,11 +4445,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.009060077265283554</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.008892848098494935</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.0006716861525934149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.00295476495544266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.01323705310514019</v>
       </c>
     </row>
   </sheetData>
@@ -2546,7 +4483,7 @@
 
 <file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2558,11 +4495,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>13702.72049747282</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>14189.01403773301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>23249.10631705999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>11399.78434182611</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>78266.57634837354</v>
       </c>
     </row>
   </sheetData>
@@ -2572,7 +4533,7 @@
 
 <file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2584,11 +4545,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>13827.75227930567</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>14211.2194759217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>23224.55813280465</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>11428.38932610071</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>80024.24834884857</v>
       </c>
     </row>
   </sheetData>
@@ -2598,7 +4583,7 @@
 
 <file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2610,11 +4595,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>13809.97530935077</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>14070.0600501394</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>22872.48290650827</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>11296.19158746101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>81204.96502948263</v>
       </c>
     </row>
   </sheetData>
@@ -2624,7 +4633,7 @@
 
 <file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2636,11 +4645,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>13659.30507328177</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>13787.91597782521</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>22229.57617714742</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>11024.29283174334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>81859.30752951275</v>
       </c>
     </row>
   </sheetData>
@@ -2650,7 +4683,7 @@
 
 <file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2662,11 +4695,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>13393.51674080635</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>13394.26122952402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>21350.07005668935</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>10642.01376818329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>82069.71231852649</v>
       </c>
     </row>
   </sheetData>
@@ -2676,7 +4733,7 @@
 
 <file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2688,11 +4745,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>13037.70792221439</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>12923.90271112237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>20301.26506162539</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>10184.45056157655</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>81944.11193448615</v>
       </c>
     </row>
   </sheetData>
@@ -2702,7 +4783,7 @@
 
 <file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2714,11 +4795,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>12623.02415065562</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>12414.8264486586</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>19158.0567015868</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>9689.616882246821</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>81607.58275287558</v>
       </c>
     </row>
   </sheetData>
@@ -2728,7 +4833,7 @@
 
 <file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2740,11 +4845,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>12184.55778396161</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>11905.76481576512</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>17997.17510703165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>9195.554172124188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>81193.05356846904</v>
       </c>
     </row>
   </sheetData>
@@ -2754,7 +4883,7 @@
 
 <file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2766,11 +4895,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>11758.53031178752</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>11433.68895645436</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>16891.77488886228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>8737.744387229046</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>80832.07452742121</v>
       </c>
     </row>
   </sheetData>
@@ -2780,7 +4933,7 @@
 
 <file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2792,11 +4945,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>11379.10014832601</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>11031.4387783005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>15906.77124731861</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>8346.99479555717</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>80646.24069827805</v>
       </c>
     </row>
   </sheetData>
@@ -2806,7 +4983,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2818,11 +4995,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.02336816694930079</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.02298464712984324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.00164726998061504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.006925779094909002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.03104777039812977</v>
       </c>
     </row>
   </sheetData>
@@ -2832,7 +5033,7 @@
 
 <file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2844,11 +5045,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>11075.30707343665</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10725.67211896251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>15095.09947980976</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>8047.816032212419</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>80739.56168772212</v>
       </c>
     </row>
   </sheetData>
@@ -2858,7 +5083,7 @@
 
 <file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2870,11 +5095,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>10868.67950225326</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10535.2898112525</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>14494.98611346329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>7857.273938664614</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>81192.11564773064</v>
       </c>
     </row>
   </sheetData>
@@ -2884,7 +5133,7 @@
 
 <file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2896,11 +5145,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>10771.86619857145</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10470.47200979494</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>14128.32767818095</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>7784.338798116631</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>82055.53738304002</v>
       </c>
     </row>
   </sheetData>
@@ -2910,7 +5183,7 @@
 
 <file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2922,11 +5195,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>10788.38070678304</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10532.41384439972</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>14000.26990772245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>7829.790357674962</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>83350.90172710227</v>
       </c>
     </row>
   </sheetData>
@@ -2936,7 +5233,7 @@
 
 <file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2948,11 +5245,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>10913.29140354454</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10713.76507658727</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>14099.99744269229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>7986.702402432014</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>85069.22593831057</v>
       </c>
     </row>
   </sheetData>
@@ -2962,7 +5283,7 @@
 
 <file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2974,11 +5295,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>11134.5527296751</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10999.68496339112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>14402.60391167945</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>8241.443868450797</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>87174.31510057936</v>
       </c>
     </row>
   </sheetData>
@@ -2988,7 +5333,7 @@
 
 <file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3000,11 +5345,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>11434.67175719553</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>11369.35885377176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>14871.78802854595</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>8575.056775387493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>89607.32320458732</v>
       </c>
     </row>
   </sheetData>
@@ -3014,7 +5383,7 @@
 
 <file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3026,11 +5395,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>11792.48221250818</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>11797.80300951874</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>15463.06688953396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>8964.847836842267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>92292.33637653322</v>
       </c>
     </row>
   </sheetData>
@@ -3040,7 +5433,7 @@
 
 <file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3052,11 +5445,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>12184.88449284284</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>12257.79705428481</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>16127.21393368198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>9386.056899502555</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>95142.42488933969</v>
       </c>
     </row>
   </sheetData>
@@ -3066,7 +5483,7 @@
 
 <file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3078,11 +5495,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>12588.46606410146</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>12721.80640332756</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>16813.67984441163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>9813.50637442014</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>98065.78557558612</v>
       </c>
     </row>
   </sheetData>
